--- a/Others/BackLog Somar.xlsx
+++ b/Others/BackLog Somar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brichucka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brichucka\source\repos\Somar\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cadastro de Escolas</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Tipo Pessoa(Educador, funcionário, Professor, beneficiário)</t>
+  </si>
+  <si>
+    <t>Alteração de Senha</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,46 +438,51 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Others/BackLog Somar.xlsx
+++ b/Others/BackLog Somar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Cadastro de Escolas</t>
   </si>
@@ -75,13 +75,31 @@
   </si>
   <si>
     <t>Alteração de Senha</t>
+  </si>
+  <si>
+    <t>TELA</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Cadastro de Projetos</t>
+  </si>
+  <si>
+    <t>Cadastro de Turmas</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +107,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03297F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,14 +142,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03297F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -392,101 +436,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Others/BackLog Somar.xlsx
+++ b/Others/BackLog Somar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Cadastro de Escolas</t>
   </si>
@@ -38,39 +38,12 @@
     <t>Relatórios</t>
   </si>
   <si>
-    <t>Alunos Por Turma</t>
-  </si>
-  <si>
-    <t>Alunos Por Projeto</t>
-  </si>
-  <si>
-    <t>Alunos Por Escola</t>
-  </si>
-  <si>
-    <t>Alunos Por Educador</t>
-  </si>
-  <si>
-    <t>Alunos Por Bairro</t>
-  </si>
-  <si>
-    <t>Alunos Por Faixa Etária</t>
-  </si>
-  <si>
     <t>Painel / Calendário</t>
   </si>
   <si>
-    <t>Cadastro de Beneficiário</t>
-  </si>
-  <si>
-    <t>(incluir Dados Variaveis)</t>
-  </si>
-  <si>
     <t>Avaliação</t>
   </si>
   <si>
-    <t>Aniversáriantes da Semana</t>
-  </si>
-  <si>
     <t>Tipo Pessoa(Educador, funcionário, Professor, beneficiário)</t>
   </si>
   <si>
@@ -93,6 +66,57 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Tela para alteração de senha do usuário.</t>
+  </si>
+  <si>
+    <t>Reset de Senha</t>
+  </si>
+  <si>
+    <t>Semelhante a opção para troca de senha, porém, administrador poderá selecionar qualquer um dos usuários</t>
+  </si>
+  <si>
+    <t>Não inciado</t>
+  </si>
+  <si>
+    <t>Criação de Usuário (Login)</t>
+  </si>
+  <si>
+    <t>Fazer validação para não permitir a criação de um mesmo login para usuários distintos</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Menu Principal</t>
+  </si>
+  <si>
+    <t>Main - Dados do Usuário</t>
+  </si>
+  <si>
+    <t>Main - Perfil do Usuário</t>
+  </si>
+  <si>
+    <t>Main - Aniversariantes do Mês</t>
+  </si>
+  <si>
+    <t>SplashScreen</t>
+  </si>
+  <si>
+    <t>Login (Autenticação)</t>
+  </si>
+  <si>
+    <t>Alunos Por Turma, Alunos Por Projeto,  Alunos Por Escola, Alunos Por Educador, Alunos Por Bairro, Alunos Por Faixa Etária</t>
+  </si>
+  <si>
+    <t>Cadastro de Pessoas</t>
+  </si>
+  <si>
+    <t>(incluir Dados Variaveis), Incluir Escola, Ajustar Foto</t>
   </si>
 </sst>
 </file>
@@ -436,126 +460,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="117.7109375" customWidth="1"/>
     <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Others/BackLog Somar.xlsx
+++ b/Others/BackLog Somar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Cadastro de Escolas</t>
   </si>
@@ -68,9 +68,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
     <t>Tela para alteração de senha do usuário.</t>
   </si>
   <si>
@@ -110,20 +107,35 @@
     <t>Login (Autenticação)</t>
   </si>
   <si>
-    <t>Alunos Por Turma, Alunos Por Projeto,  Alunos Por Escola, Alunos Por Educador, Alunos Por Bairro, Alunos Por Faixa Etária</t>
-  </si>
-  <si>
     <t>Cadastro de Pessoas</t>
   </si>
   <si>
     <t>(incluir Dados Variaveis), Incluir Escola, Ajustar Foto</t>
+  </si>
+  <si>
+    <t>Alunos Por Faixa Etária</t>
+  </si>
+  <si>
+    <t>Alunos Por Bairro</t>
+  </si>
+  <si>
+    <t>Alunos Por Educador</t>
+  </si>
+  <si>
+    <t>Alunos Por Escola</t>
+  </si>
+  <si>
+    <t>Alunos Por Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alunos Por Turma, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +151,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF03297F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +201,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,46 +583,46 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -598,7 +630,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -606,43 +638,87 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
